--- a/biology/Botanique/Claude_Brosse/Claude_Brosse.xlsx
+++ b/biology/Botanique/Claude_Brosse/Claude_Brosse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Brosse, né en 1656 (probablement fils d'André Brosse et de Pierrette Dubief[1]) et décédé en 1731, est un viticulteur de Charnay-lès-Mâcon qui, en vendant du vin de Mâcon au roi Louis XIV, aurait permis au vignoble du Mâconnais de bénéficier d'une grande renommée. 
-Son histoire est ainsi résumée, en 1910, dans un rapport sur l'exposition franco-britannique[2] « C'était en l'année 1660, un dimanche, au cours d'une cérémonie religieuse célébrée dans la chapelle de Versailles : le roi ayant remarqué un homme qui semblait se tenir debout alors que tout le monde était agenouillé lui envoya un de ses officiers pour le rappeler à plus de piété ; mais l'officier constata que l'homme était agenouillé et cet incident fit désirer au roi de voir ce géant. Il lui fut amené à l'issue de la cérémonie : c'était un vigneron mâconnais nommé Claude Brosse, venu avec un char traîné par deux bœufs pour présenter des vins à la cour. Louis XIV s'empressa de goûter ces vins. Il les apprécia et fit de Claude Brosse son fournisseur. »
-L'histoire, demeurée dans la mémoire collective, est fréquemment citée, par exemple, dans le livre Journal de la Bourgogne des origines à nos jours ou l'article consacré à Claude Brosse, intitulé « un vigneron à l'assaut de la capitale »[3].
-Un éco-lycée, l'EREA-LEA de Charnay-lès-Mâcon, porte le nom de Claude Brosse[4].
-La propriété Brosse abrite toujours des caves voûtées situées dans la commune Charnay-lès-Mâcon[5].
-La commune de Chasselas organise chaque année une fête du char à bœufs en hommage à Claude Brosse[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Brosse, né en 1656 (probablement fils d'André Brosse et de Pierrette Dubief) et décédé en 1731, est un viticulteur de Charnay-lès-Mâcon qui, en vendant du vin de Mâcon au roi Louis XIV, aurait permis au vignoble du Mâconnais de bénéficier d'une grande renommée. 
+Son histoire est ainsi résumée, en 1910, dans un rapport sur l'exposition franco-britannique « C'était en l'année 1660, un dimanche, au cours d'une cérémonie religieuse célébrée dans la chapelle de Versailles : le roi ayant remarqué un homme qui semblait se tenir debout alors que tout le monde était agenouillé lui envoya un de ses officiers pour le rappeler à plus de piété ; mais l'officier constata que l'homme était agenouillé et cet incident fit désirer au roi de voir ce géant. Il lui fut amené à l'issue de la cérémonie : c'était un vigneron mâconnais nommé Claude Brosse, venu avec un char traîné par deux bœufs pour présenter des vins à la cour. Louis XIV s'empressa de goûter ces vins. Il les apprécia et fit de Claude Brosse son fournisseur. »
+L'histoire, demeurée dans la mémoire collective, est fréquemment citée, par exemple, dans le livre Journal de la Bourgogne des origines à nos jours ou l'article consacré à Claude Brosse, intitulé « un vigneron à l'assaut de la capitale ».
+Un éco-lycée, l'EREA-LEA de Charnay-lès-Mâcon, porte le nom de Claude Brosse.
+La propriété Brosse abrite toujours des caves voûtées situées dans la commune Charnay-lès-Mâcon.
+La commune de Chasselas organise chaque année une fête du char à bœufs en hommage à Claude Brosse.
 </t>
         </is>
       </c>
